--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.8002438</v>
+        <v>9.749285</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5947738</v>
+        <v>1.543815</v>
       </c>
       <c r="D2" t="n">
-        <v>4.0448588</v>
+        <v>2.9939</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.4976764</v>
+        <v>2.367085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5020464</v>
+        <v>0.371455</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0248414</v>
+        <v>0.89425</v>
       </c>
     </row>
     <row r="4">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.4475798</v>
+        <v>7.402089999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4769798</v>
+        <v>0.43149</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1967898</v>
+        <v>1.1513</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.9666722</v>
+        <v>18.63214</v>
       </c>
       <c r="C7" t="n">
-        <v>1.2703572</v>
+        <v>0.935825</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3508922</v>
+        <v>1.01636</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.610411</v>
+        <v>0.590395</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3942860000000001</v>
+        <v>0.37427</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233216</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2697032</v>
+        <v>0.17663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1928082</v>
+        <v>0.09973499999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2378532</v>
+        <v>0.14478</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2001236</v>
+        <v>0.129185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1682736</v>
+        <v>0.097335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1841986</v>
+        <v>0.11326</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1130746</v>
+        <v>0.08722000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1613046</v>
+        <v>0.13545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1189896</v>
+        <v>0.093135</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09549330800000001</v>
+        <v>0.09084095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.012210108</v>
+        <v>0.00755775</v>
       </c>
       <c r="D12" t="n">
-        <v>0.038663808</v>
+        <v>0.03401145000000001</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.089938224</v>
+        <v>0.08669285</v>
       </c>
       <c r="C13" t="n">
-        <v>0.011705524</v>
+        <v>0.00846015</v>
       </c>
       <c r="D13" t="n">
-        <v>0.022643724</v>
+        <v>0.01939835</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>908.8172</v>
+        <v>788.7049999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>575.7572</v>
+        <v>455.645</v>
       </c>
       <c r="D14" t="n">
-        <v>695.4222</v>
+        <v>575.3099999999999</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25209.5044</v>
+        <v>18284.165</v>
       </c>
       <c r="C15" t="n">
-        <v>17757.5144</v>
+        <v>10832.175</v>
       </c>
       <c r="D15" t="n">
-        <v>19597.0794</v>
+        <v>12671.74</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>impacts_recipe_1</t>
+          <t>Recipe 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>impacts_recipe_2</t>
+          <t>Recipe 2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>impacts_recipe_3</t>
+          <t>Recipe 3</t>
         </is>
       </c>
     </row>

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Land Use (m2) Arable</t>
+          <t>Land Use Arable</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land Use (m2) Fallow</t>
+          <t>Land Use Fallow</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Land Use (m2) Perm Past</t>
+          <t>Land Use Perm Past</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -506,7 +506,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) LUC</t>
+          <t>GHG LUC</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -522,7 +522,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Feed</t>
+          <t>GHG Feed</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Farm</t>
+          <t>GHG Farm</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Processing</t>
+          <t>GHG Processing</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Transport</t>
+          <t>GHG Transport</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Packging</t>
+          <t>GHG Packging</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GHG (kg CO2eq, IPCC 2013) Retail</t>
+          <t>GHG Retail</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,7 +618,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Acid.(kg SO2eq)</t>
+          <t>Acidification</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Eutr. (kg PO43-eq)</t>
+          <t>Eutrophication</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -650,7 +650,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Freshwater (L)</t>
+          <t>Freshwater Withdrawals (FW)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Str-Wt WU (L eq)</t>
+          <t>Scarcity-Weighted FW</t>
         </is>
       </c>
       <c r="B15" t="n">

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe 1</t>
+          <t>Recipe Rice and Beef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe 2</t>
+          <t>Recipe Rice and chicken</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe 3</t>
+          <t>Recipe Rice and Soy tofu</t>
         </is>
       </c>
     </row>
@@ -465,10 +465,10 @@
         <v>9.749285</v>
       </c>
       <c r="C2" t="n">
+        <v>2.9939</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.543815</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.9939</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>2.367085</v>
       </c>
       <c r="C3" t="n">
+        <v>0.89425</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.371455</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.89425</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         <v>7.402089999999999</v>
       </c>
       <c r="C5" t="n">
+        <v>1.1513</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.43149</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.1513</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0.8544899999999999</v>
       </c>
       <c r="C6" t="n">
+        <v>0.807625</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.807625</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>18.63214</v>
       </c>
       <c r="C7" t="n">
+        <v>1.01636</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.935825</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.01636</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0.590395</v>
       </c>
       <c r="C8" t="n">
+        <v>0.2132</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.37427</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2132</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0.17663</v>
       </c>
       <c r="C9" t="n">
+        <v>0.14478</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.09973499999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.14478</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>0.129185</v>
       </c>
       <c r="C10" t="n">
+        <v>0.11326</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.097335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.11326</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>0.08722000000000001</v>
       </c>
       <c r="C11" t="n">
+        <v>0.093135</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.13545</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.093135</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>0.09084095</v>
       </c>
       <c r="C12" t="n">
+        <v>0.03401145000000001</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.00755775</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.03401145000000001</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>0.08669285</v>
       </c>
       <c r="C13" t="n">
+        <v>0.01939835</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.00846015</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.01939835</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>788.7049999999999</v>
       </c>
       <c r="C14" t="n">
+        <v>575.3099999999999</v>
+      </c>
+      <c r="D14" t="n">
         <v>455.645</v>
-      </c>
-      <c r="D14" t="n">
-        <v>575.3099999999999</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>18284.165</v>
       </c>
       <c r="C15" t="n">
+        <v>12671.74</v>
+      </c>
+      <c r="D15" t="n">
         <v>10832.175</v>
-      </c>
-      <c r="D15" t="n">
-        <v>12671.74</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and Beef</t>
+          <t>Recipe Lomo Saltado with beef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and chicken</t>
+          <t>Recipe Lomo Saltado with chicken</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Rice and Soy tofu</t>
+          <t>Recipe Lomo Saltado with chickpeas</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with mushrooms</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with salmon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with tofu</t>
         </is>
       </c>
     </row>
@@ -462,13 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.749285</v>
+        <v>13.7190236</v>
       </c>
       <c r="C2" t="n">
-        <v>2.9939</v>
+        <v>6.9636386</v>
       </c>
       <c r="D2" t="n">
-        <v>1.543815</v>
+        <v>8.8705436</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.4898036</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.6031886</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.513553600000001</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.367085</v>
+        <v>3.0133508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89425</v>
+        <v>1.5405158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.371455</v>
+        <v>2.4227608</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7474508</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.0300058</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0177208</v>
       </c>
     </row>
     <row r="4">
@@ -502,6 +535,15 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,13 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.402089999999999</v>
+        <v>8.503787599999999</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1513</v>
+        <v>2.2529976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43149</v>
+        <v>1.1123126</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0977526</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.3402676</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.5331876</v>
       </c>
     </row>
     <row r="6">
@@ -534,6 +585,15 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.372645</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -542,13 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.63214</v>
+        <v>20.7405214</v>
       </c>
       <c r="C7" t="n">
-        <v>1.01636</v>
+        <v>3.1247414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.935825</v>
+        <v>3.3144764</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.8981514</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.456071400000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0442064</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.590395</v>
+        <v>0.6889980000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2132</v>
+        <v>0.311803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.37427</v>
+        <v>0.111603</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.138903</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.120703</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4728730000000001</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.17663</v>
+        <v>0.3578433999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.14478</v>
+        <v>0.3259933999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09973499999999999</v>
+        <v>0.2440934</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2750333999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2509184</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2809483999999999</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.129185</v>
+        <v>0.3899102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.11326</v>
+        <v>0.3739852000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.097335</v>
+        <v>0.4381402</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2961802000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3052802000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3580602</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08722000000000001</v>
+        <v>0.1350142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.093135</v>
+        <v>0.1409292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.13545</v>
+        <v>0.07813920000000001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.06721920000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0785942</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1832442</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09084095</v>
+        <v>0.107303026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03401145000000001</v>
+        <v>0.050473526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00755775</v>
+        <v>0.029880226</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.023592126</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.032551076</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.024019826</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08669285</v>
+        <v>0.103184908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01939835</v>
+        <v>0.035890408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00846015</v>
+        <v>0.029265608</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.023282358</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.06432790799999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.024952208</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>788.7049999999999</v>
+        <v>1432.1124</v>
       </c>
       <c r="C14" t="n">
-        <v>575.3099999999999</v>
+        <v>1218.7174</v>
       </c>
       <c r="D14" t="n">
-        <v>455.645</v>
+        <v>1201.4274</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1073.5724</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1634.1324</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1099.0524</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18284.165</v>
+        <v>40831.37280000001</v>
       </c>
       <c r="C15" t="n">
-        <v>12671.74</v>
+        <v>35218.94780000002</v>
       </c>
       <c r="D15" t="n">
-        <v>10832.175</v>
+        <v>39697.05780000002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>33003.0978</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37431.61280000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33379.38280000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Impacts_labels</t>
+          <t>impacts_labels</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with beef</t>
+          <t>Recipe Chicken in creme freice</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with chicken</t>
+          <t>Recipe Chilli con carne</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with chickpeas</t>
+          <t>Recipe Kylling og søtpotet</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with mushrooms</t>
+          <t>Recipe Meeeeeat</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Lomo Saltado with salmon</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Recipe Lomo Saltado with tofu</t>
+          <t>Recipe Porrige</t>
         </is>
       </c>
     </row>
@@ -477,22 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.7190236</v>
+        <v>7.598879200000001</v>
       </c>
       <c r="C2" t="n">
-        <v>6.9636386</v>
+        <v>18.3786192</v>
       </c>
       <c r="D2" t="n">
-        <v>8.8705436</v>
+        <v>5.865119999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>4.4898036</v>
+        <v>39.58889000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>5.6031886</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.513553600000001</v>
+        <v>7.896140000000001</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.0133508</v>
+        <v>2.4108816</v>
       </c>
       <c r="C3" t="n">
-        <v>1.5405158</v>
+        <v>5.2816516</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4227608</v>
+        <v>1.87952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7474508</v>
+        <v>10.18122</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0300058</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0177208</v>
+        <v>2.61902</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.48186</v>
+        <v>2.1335</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -536,14 +525,11 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>304.88735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,22 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.503787599999999</v>
+        <v>2.7094856</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2529976</v>
+        <v>7.0928056</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1123126</v>
+        <v>2.27488</v>
       </c>
       <c r="E5" t="n">
-        <v>1.0977526</v>
+        <v>29.97520999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>1.3402676</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.5331876</v>
+        <v>0.5462349999999999</v>
       </c>
     </row>
     <row r="6">
@@ -577,21 +560,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8544899999999999</v>
+        <v>1.50024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.807625</v>
+        <v>1.42</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.46772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.372645</v>
-      </c>
-      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,22 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.7405214</v>
+        <v>2.0526036</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1247414</v>
+        <v>6.511263600000001</v>
       </c>
       <c r="D7" t="n">
-        <v>3.3144764</v>
+        <v>1.28196</v>
       </c>
       <c r="E7" t="n">
-        <v>2.8981514</v>
+        <v>72.69932</v>
       </c>
       <c r="F7" t="n">
-        <v>4.456071400000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.0442064</v>
+        <v>2.81877</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6889980000000001</v>
+        <v>0.5631828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.311803</v>
+        <v>0.6547527999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.111603</v>
+        <v>0.36236</v>
       </c>
       <c r="E8" t="n">
-        <v>0.138903</v>
+        <v>2.36005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.120703</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4728730000000001</v>
+        <v>0.35745</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3578433999999999</v>
+        <v>0.4871432000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3259933999999999</v>
+        <v>0.6006731999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2440934</v>
+        <v>0.45712</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2750333999999999</v>
+        <v>1.01004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2509184</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.2809483999999999</v>
+        <v>0.516635</v>
       </c>
     </row>
     <row r="10">
@@ -677,22 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3899102</v>
+        <v>0.3798696</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3739852000000001</v>
+        <v>1.0533096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4381402</v>
+        <v>0.30928</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2961802000000001</v>
+        <v>0.74295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3052802000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3580602</v>
+        <v>0.39381</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1350142</v>
+        <v>0.2819676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1409292</v>
+        <v>0.2299776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07813920000000001</v>
+        <v>0.22036</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06721920000000001</v>
+        <v>0.4837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0785942</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1832442</v>
+        <v>0.442385</v>
       </c>
     </row>
     <row r="12">
@@ -727,22 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.107303026</v>
+        <v>0.07090242000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.050473526</v>
+        <v>0.09367762000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.029880226</v>
+        <v>0.06318120000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.023592126</v>
+        <v>0.3644722</v>
       </c>
       <c r="F12" t="n">
-        <v>0.032551076</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.024019826</v>
+        <v>0.02128775</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.103184908</v>
+        <v>0.036352752</v>
       </c>
       <c r="C13" t="n">
-        <v>0.035890408</v>
+        <v>0.070164752</v>
       </c>
       <c r="D13" t="n">
-        <v>0.029265608</v>
+        <v>0.03232159999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.023282358</v>
+        <v>0.3354869999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06432790799999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.024952208</v>
+        <v>0.01837625</v>
       </c>
     </row>
     <row r="14">
@@ -777,22 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1432.1124</v>
+        <v>844.6276000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>1218.7174</v>
+        <v>1321.8376</v>
       </c>
       <c r="D14" t="n">
-        <v>1201.4274</v>
+        <v>462.52</v>
       </c>
       <c r="E14" t="n">
-        <v>1073.5724</v>
+        <v>2044.39</v>
       </c>
       <c r="F14" t="n">
-        <v>1634.1324</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1099.0524</v>
+        <v>646.3399999999999</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40831.37280000001</v>
+        <v>29224.90480000001</v>
       </c>
       <c r="C15" t="n">
-        <v>35218.94780000002</v>
+        <v>37519.82480000001</v>
       </c>
       <c r="D15" t="n">
-        <v>39697.05780000002</v>
+        <v>15544.88</v>
       </c>
       <c r="E15" t="n">
-        <v>33003.0978</v>
+        <v>59785.87000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>37431.61280000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>33379.38280000001</v>
+        <v>23344.01</v>
       </c>
     </row>
   </sheetData>

--- a/data/interim/Impacts_recipes.xlsx
+++ b/data/interim/Impacts_recipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Chicken in creme freice</t>
+          <t>Recipe Lomo Saltado with beef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Chilli con carne</t>
+          <t>Recipe Lomo Saltado with chicken</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Kylling og søtpotet</t>
+          <t>Recipe Lomo Saltado with chickpeas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Meeeeeat</t>
+          <t>Recipe Lomo Saltado with mushrooms</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Recipe Porrige</t>
+          <t>Recipe Lomo Saltado with salmon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Lomo Saltado with tofu</t>
         </is>
       </c>
     </row>
@@ -472,19 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.598879200000001</v>
+        <v>13.7190236</v>
       </c>
       <c r="C2" t="n">
-        <v>18.3786192</v>
+        <v>6.9636386</v>
       </c>
       <c r="D2" t="n">
-        <v>5.865119999999999</v>
+        <v>8.8705436</v>
       </c>
       <c r="E2" t="n">
-        <v>39.58889000000001</v>
+        <v>4.4898036</v>
       </c>
       <c r="F2" t="n">
-        <v>7.896140000000001</v>
+        <v>5.6031886</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.513553600000001</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.4108816</v>
+        <v>3.0133508</v>
       </c>
       <c r="C3" t="n">
-        <v>5.2816516</v>
+        <v>1.5405158</v>
       </c>
       <c r="D3" t="n">
-        <v>1.87952</v>
+        <v>2.4227608</v>
       </c>
       <c r="E3" t="n">
-        <v>10.18122</v>
+        <v>0.7474508</v>
       </c>
       <c r="F3" t="n">
-        <v>2.61902</v>
+        <v>1.0300058</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0177208</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.1335</v>
+        <v>76.48186</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -525,11 +536,14 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>304.88735</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -538,19 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.7094856</v>
+        <v>8.503787599999999</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0928056</v>
+        <v>2.2529976</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27488</v>
+        <v>1.1123126</v>
       </c>
       <c r="E5" t="n">
-        <v>29.97520999999999</v>
+        <v>1.0977526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5462349999999999</v>
+        <v>1.3402676</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.5331876</v>
       </c>
     </row>
     <row r="6">
@@ -560,18 +577,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.50024</v>
+        <v>0.8544899999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>1.42</v>
+        <v>0.807625</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.46772</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0.372645</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,19 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.0526036</v>
+        <v>20.7405214</v>
       </c>
       <c r="C7" t="n">
-        <v>6.511263600000001</v>
+        <v>3.1247414</v>
       </c>
       <c r="D7" t="n">
-        <v>1.28196</v>
+        <v>3.3144764</v>
       </c>
       <c r="E7" t="n">
-        <v>72.69932</v>
+        <v>2.8981514</v>
       </c>
       <c r="F7" t="n">
-        <v>2.81877</v>
+        <v>4.456071400000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.0442064</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5631828</v>
+        <v>0.6889980000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6547527999999999</v>
+        <v>0.311803</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36236</v>
+        <v>0.111603</v>
       </c>
       <c r="E8" t="n">
-        <v>2.36005</v>
+        <v>0.138903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.35745</v>
+        <v>0.120703</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4728730000000001</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4871432000000001</v>
+        <v>0.3578433999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6006731999999999</v>
+        <v>0.3259933999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.45712</v>
+        <v>0.2440934</v>
       </c>
       <c r="E9" t="n">
-        <v>1.01004</v>
+        <v>0.2750333999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.516635</v>
+        <v>0.2509184</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2809483999999999</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +677,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3798696</v>
+        <v>0.3899102</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0533096</v>
+        <v>0.3739852000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30928</v>
+        <v>0.4381402</v>
       </c>
       <c r="E10" t="n">
-        <v>0.74295</v>
+        <v>0.2961802000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.39381</v>
+        <v>0.3052802000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3580602</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2819676</v>
+        <v>0.1350142</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2299776</v>
+        <v>0.1409292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22036</v>
+        <v>0.07813920000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4837</v>
+        <v>0.06721920000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.442385</v>
+        <v>0.0785942</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1832442</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +727,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07090242000000001</v>
+        <v>0.107303026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09367762000000002</v>
+        <v>0.050473526</v>
       </c>
       <c r="D12" t="n">
-        <v>0.06318120000000001</v>
+        <v>0.029880226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3644722</v>
+        <v>0.023592126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02128775</v>
+        <v>0.032551076</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.024019826</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.036352752</v>
+        <v>0.103184908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.070164752</v>
+        <v>0.035890408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03232159999999999</v>
+        <v>0.029265608</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3354869999999999</v>
+        <v>0.023282358</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01837625</v>
+        <v>0.06432790799999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.024952208</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>844.6276000000001</v>
+        <v>1432.1124</v>
       </c>
       <c r="C14" t="n">
-        <v>1321.8376</v>
+        <v>1218.7174</v>
       </c>
       <c r="D14" t="n">
-        <v>462.52</v>
+        <v>1201.4274</v>
       </c>
       <c r="E14" t="n">
-        <v>2044.39</v>
+        <v>1073.5724</v>
       </c>
       <c r="F14" t="n">
-        <v>646.3399999999999</v>
+        <v>1634.1324</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1099.0524</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29224.90480000001</v>
+        <v>40831.37280000001</v>
       </c>
       <c r="C15" t="n">
-        <v>37519.82480000001</v>
+        <v>35218.94780000002</v>
       </c>
       <c r="D15" t="n">
-        <v>15544.88</v>
+        <v>39697.05780000002</v>
       </c>
       <c r="E15" t="n">
-        <v>59785.87000000001</v>
+        <v>33003.0978</v>
       </c>
       <c r="F15" t="n">
-        <v>23344.01</v>
+        <v>37431.61280000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33379.38280000001</v>
       </c>
     </row>
   </sheetData>
